--- a/Excel-Assessment_edit.xlsx
+++ b/Excel-Assessment_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/assessments/excel_assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9957F7C4-F613-BF43-89A4-7FA1D56D4570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60745EC-CD71-BE43-A492-E2CA36F0D239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{953B05E5-DDFD-C748-8195-189FAFDAC1FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{953B05E5-DDFD-C748-8195-189FAFDAC1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem1-Questions" sheetId="3" r:id="rId1"/>
@@ -3150,7 +3150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135A3115-216C-DE4F-9613-491E273D766E}">
   <dimension ref="C2:Y504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="113" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="113" workbookViewId="0">
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
@@ -3167,6 +3167,7 @@
     <col min="20" max="20" width="12.5" customWidth="1"/>
     <col min="21" max="21" width="13.5" customWidth="1"/>
     <col min="23" max="23" width="17.83203125" customWidth="1"/>
+    <col min="24" max="24" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:25" x14ac:dyDescent="0.2">
@@ -37787,8 +37788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949AA1C7-B5A7-D644-8FE2-83A79C9C7042}">
   <dimension ref="C1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScale="138" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37882,7 +37883,7 @@
         <v>57.97</v>
       </c>
       <c r="L8" s="81" t="str">
-        <f>INDEX($D$7:$J$24,MATCH(K8,D8:J8,0),MATCH(K8,D8:J8,0))</f>
+        <f>INDEX($D$7:$J$24,MATCH(C7,C7:J7,0), MATCH(K8,D8:J8,0))</f>
         <v>Supplier 1</v>
       </c>
       <c r="M8" s="54">
@@ -37890,7 +37891,7 @@
         <v>72.819999999999993</v>
       </c>
       <c r="N8" s="48" t="str">
-        <f>INDEX($D$7:$J$24,MATCH(M12,D12:J12,0),MATCH(M12,D12:J12,0))</f>
+        <f>INDEX($D$7:$J$24,MATCH(C7,C7:J7,0), MATCH(K8,D8:J8,0))</f>
         <v>Supplier 1</v>
       </c>
       <c r="P8" t="s">
@@ -37930,17 +37931,21 @@
         <f t="shared" ref="K9:K24" si="0">MIN(D9:J9)</f>
         <v>20</v>
       </c>
-      <c r="L9" s="81">
-        <f t="shared" ref="L9:L24" si="1">INDEX($D$7:$J$24,MATCH(K9,D9:J9,0),MATCH(K9,D9:J9,0))</f>
-        <v>20</v>
+      <c r="L9" s="81" t="str">
+        <f t="shared" ref="L9:L24" si="1">INDEX($D$7:$J$24,MATCH(C8,C8:J8,0), MATCH(K9,D9:J9,0))</f>
+        <v>Supplier 3</v>
       </c>
       <c r="M9" s="54">
         <f t="shared" ref="M9:M24" si="2">MAX(D9:J9)</f>
         <v>52.58</v>
       </c>
-      <c r="N9" s="48">
-        <f t="shared" ref="N9:N24" si="3">INDEX($D$7:$J$24,MATCH(M13,D13:J13,0),MATCH(M13,D13:J13,0))</f>
-        <v>73.069999999999993</v>
+      <c r="N9" s="48" t="str">
+        <f t="shared" ref="N9:N24" si="3">INDEX($D$7:$J$24,MATCH(C8,C8:J8,0), MATCH(K9,D9:J9,0))</f>
+        <v>Supplier 3</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9:Q24" si="4">MATCH(K9,C9:J9,0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.2">
@@ -37972,17 +37977,21 @@
         <f t="shared" si="0"/>
         <v>28.81</v>
       </c>
-      <c r="L10" s="81">
+      <c r="L10" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>29.69</v>
+        <v>Supplier 5</v>
       </c>
       <c r="M10" s="54">
         <f t="shared" si="2"/>
         <v>74.77</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>72.2</v>
+        <v>Supplier 5</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.2">
@@ -38014,9 +38023,9 @@
         <f t="shared" si="0"/>
         <v>29.69</v>
       </c>
-      <c r="L11" s="81">
+      <c r="L11" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>29.69</v>
+        <v>Supplier 5</v>
       </c>
       <c r="M11" s="54">
         <f t="shared" si="2"/>
@@ -38024,7 +38033,11 @@
       </c>
       <c r="N11" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>Supplier 1</v>
+        <v>Supplier 5</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.2">
@@ -38056,22 +38069,26 @@
         <f t="shared" si="0"/>
         <v>32.44</v>
       </c>
-      <c r="L12" s="81">
+      <c r="L12" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>72.2</v>
+        <v>Supplier 2</v>
       </c>
       <c r="M12" s="54">
         <f t="shared" si="2"/>
         <v>72.36</v>
       </c>
-      <c r="N12" s="48">
+      <c r="N12" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>52.86</v>
+        <v>Supplier 2</v>
       </c>
       <c r="P12" t="str">
         <f>INDEX($D$7:$J$24,MATCH(M12,D12:J12,0),MATCH(M12,D12:J12,0))</f>
         <v>Supplier 1</v>
       </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C13" s="52" t="s">
@@ -38102,17 +38119,21 @@
         <f t="shared" si="0"/>
         <v>26.32</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>Supplier 3</v>
       </c>
       <c r="M13" s="54">
         <f t="shared" si="2"/>
         <v>73.069999999999993</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>72.2</v>
+        <v>Supplier 3</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.2">
@@ -38144,17 +38165,21 @@
         <f t="shared" si="0"/>
         <v>28.11</v>
       </c>
-      <c r="L14" s="81">
+      <c r="L14" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>29.69</v>
+        <v>Supplier 5</v>
       </c>
       <c r="M14" s="54">
         <f t="shared" si="2"/>
         <v>68.8</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>Supplier 5</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.2">
@@ -38186,17 +38211,21 @@
         <f t="shared" si="0"/>
         <v>39.22</v>
       </c>
-      <c r="L15" s="81">
+      <c r="L15" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>29.69</v>
+        <v>Supplier 5</v>
       </c>
       <c r="M15" s="54">
         <f t="shared" si="2"/>
         <v>74.569999999999993</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>29.69</v>
+        <v>Supplier 5</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.2">
@@ -38228,20 +38257,24 @@
         <f t="shared" si="0"/>
         <v>47.16</v>
       </c>
-      <c r="L16" s="81">
+      <c r="L16" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>29.69</v>
+        <v>Supplier 5</v>
       </c>
       <c r="M16" s="54">
         <f t="shared" si="2"/>
         <v>72.78</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>35.56</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+        <v>Supplier 5</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="52" t="s">
         <v>617</v>
       </c>
@@ -38270,20 +38303,24 @@
         <f t="shared" si="0"/>
         <v>26.44</v>
       </c>
-      <c r="L17" s="81">
+      <c r="L17" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>52.86</v>
+        <v>Supplier 6</v>
       </c>
       <c r="M17" s="54">
         <f t="shared" si="2"/>
         <v>70.11</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+        <v>Supplier 6</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
         <v>618</v>
       </c>
@@ -38324,8 +38361,12 @@
         <f t="shared" si="3"/>
         <v>Supplier 1</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="52" t="s">
         <v>619</v>
       </c>
@@ -38354,20 +38395,24 @@
         <f t="shared" si="0"/>
         <v>30.53</v>
       </c>
-      <c r="L19" s="81">
+      <c r="L19" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>35.56</v>
+        <v>Supplier 4</v>
       </c>
       <c r="M19" s="54">
         <f t="shared" si="2"/>
         <v>62.71</v>
       </c>
-      <c r="N19" s="48">
+      <c r="N19" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+        <v>Supplier 4</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
         <v>620</v>
       </c>
@@ -38396,20 +38441,24 @@
         <f t="shared" si="0"/>
         <v>34.57</v>
       </c>
-      <c r="L20" s="81">
+      <c r="L20" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>73.069999999999993</v>
+        <v>Supplier 7</v>
       </c>
       <c r="M20" s="54">
         <f t="shared" si="2"/>
         <v>72.040000000000006</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>35.56</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+        <v>Supplier 7</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="52" t="s">
         <v>621</v>
       </c>
@@ -38438,20 +38487,24 @@
         <f t="shared" si="0"/>
         <v>26.93</v>
       </c>
-      <c r="L21" s="81">
+      <c r="L21" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>73.069999999999993</v>
+        <v>Supplier 7</v>
       </c>
       <c r="M21" s="54">
         <f t="shared" si="2"/>
         <v>62.3</v>
       </c>
-      <c r="N21" s="48" t="e">
+      <c r="N21" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+        <v>Supplier 7</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>622</v>
       </c>
@@ -38480,20 +38533,24 @@
         <f t="shared" si="0"/>
         <v>27.49</v>
       </c>
-      <c r="L22" s="81">
+      <c r="L22" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>52.86</v>
+        <v>Supplier 6</v>
       </c>
       <c r="M22" s="54">
         <f t="shared" si="2"/>
         <v>73.59</v>
       </c>
-      <c r="N22" s="48" t="e">
+      <c r="N22" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+        <v>Supplier 6</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="52" t="s">
         <v>623</v>
       </c>
@@ -38522,20 +38579,24 @@
         <f t="shared" si="0"/>
         <v>32.81</v>
       </c>
-      <c r="L23" s="81">
+      <c r="L23" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>29.69</v>
+        <v>Supplier 5</v>
       </c>
       <c r="M23" s="54">
         <f t="shared" si="2"/>
         <v>62.93</v>
       </c>
-      <c r="N23" s="48" t="e">
+      <c r="N23" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+        <v>Supplier 5</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
         <v>624</v>
       </c>
@@ -38564,17 +38625,21 @@
         <f t="shared" si="0"/>
         <v>36.049999999999997</v>
       </c>
-      <c r="L24" s="81">
+      <c r="L24" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>73.069999999999993</v>
+        <v>Supplier 7</v>
       </c>
       <c r="M24" s="54">
         <f t="shared" si="2"/>
         <v>62.1</v>
       </c>
-      <c r="N24" s="48" t="e">
+      <c r="N24" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>Supplier 7</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
